--- a/ig/ch-core/StructureDefinition-ch-core-claim.xlsx
+++ b/ig/ch-core/StructureDefinition-ch-core-claim.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>6.0.0-ballot</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T06:00:59+00:00</t>
+    <t>2025-12-16T08:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -377,7 +377,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -619,7 +619,7 @@
     <t>A more granular claim typecode.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-subtype</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-subtype|4.0.1</t>
   </si>
   <si>
     <t>Claim.use</t>
@@ -718,7 +718,7 @@
     <t>Claim.enterer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1)
 </t>
   </si>
   <si>
@@ -737,7 +737,7 @@
     <t>Claim.insurer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization)
+    <t xml:space="preserve">Reference(Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -793,7 +793,7 @@
     <t>The timeliness with which processing is required: stat, normal, deferred.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/process-priority</t>
+    <t>http://hl7.org/fhir/ValueSet/process-priority|4.0.1</t>
   </si>
   <si>
     <t>Request.priority</t>
@@ -821,7 +821,7 @@
     <t>For whom funds are to be reserved: (Patient, Provider, None).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/fundsreserve</t>
+    <t>http://hl7.org/fhir/ValueSet/fundsreserve|4.0.1</t>
   </si>
   <si>
     <t>Claim.related</t>
@@ -894,7 +894,7 @@
     <t>Claim.related.claim</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Claim)
+    <t xml:space="preserve">Reference(Claim|4.0.1)
 </t>
   </si>
   <si>
@@ -925,7 +925,7 @@
     <t>Relationship of this claim to a related Claim.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship</t>
+    <t>http://hl7.org/fhir/ValueSet/related-claim-relationship|4.0.1</t>
   </si>
   <si>
     <t>Claim.related.reference</t>
@@ -946,7 +946,7 @@
     <t>Claim.prescription</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DeviceRequest|MedicationRequest|VisionPrescription)
+    <t xml:space="preserve">Reference(DeviceRequest|4.0.1|MedicationRequest|4.0.1|VisionPrescription|4.0.1)
 </t>
   </si>
   <si>
@@ -1013,13 +1013,13 @@
     <t>A code for the party to be reimbursed.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/payeetype</t>
+    <t>http://hl7.org/fhir/ValueSet/payeetype|4.0.1</t>
   </si>
   <si>
     <t>Claim.payee.party</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|Patient|RelatedPerson)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1|Patient|4.0.1|RelatedPerson|4.0.1)
 </t>
   </si>
   <si>
@@ -1038,7 +1038,7 @@
     <t>Claim.referral</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ServiceRequest)
+    <t xml:space="preserve">Reference(ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -1060,7 +1060,7 @@
     <t>Claim.facility</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Location)
+    <t xml:space="preserve">Reference(Location|4.0.1)
 </t>
   </si>
   <si>
@@ -1116,7 +1116,7 @@
     <t>Claim.careTeam.provider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization)
+    <t xml:space="preserve">Reference(Practitioner|4.0.1|PractitionerRole|4.0.1|Organization|4.0.1)
 </t>
   </si>
   <si>
@@ -1169,7 +1169,7 @@
     <t>The role codes for the care team members.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-careteamrole</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-careteamrole|4.0.1</t>
   </si>
   <si>
     <t>Claim.careTeam.qualification</t>
@@ -1187,7 +1187,7 @@
     <t>Provider professional qualifications.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/provider-qualification</t>
+    <t>http://hl7.org/fhir/ValueSet/provider-qualification|4.0.1</t>
   </si>
   <si>
     <t>Claim.supportingInfo</t>
@@ -1258,7 +1258,7 @@
     <t>The valuset used for additional information category codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-informationcategory|4.0.1</t>
   </si>
   <si>
     <t>Claim.supportingInfo.code</t>
@@ -1276,7 +1276,7 @@
     <t>The valuset used for additional information codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-exception</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-exception|4.0.1</t>
   </si>
   <si>
     <t>Claim.supportingInfo.timing[x]</t>
@@ -1296,7 +1296,7 @@
   </si>
   <si>
     <t>boolean
-stringQuantityAttachmentReference(Resource)</t>
+stringQuantityAttachmentReference(Resource|4.0.1)</t>
   </si>
   <si>
     <t>Data to be provided</t>
@@ -1329,7 +1329,7 @@
     <t>Reason codes for the missing teeth.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/missing-tooth-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/missing-tooth-reason|4.0.1</t>
   </si>
   <si>
     <t>Claim.supportingInfo:treatmentReason</t>
@@ -1485,7 +1485,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Condition)</t>
+Reference(Condition|4.0.1)</t>
   </si>
   <si>
     <t>Nature of illness or problem</t>
@@ -1500,7 +1500,7 @@
     <t>Example ICD10 Diagnostic codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/icd-10</t>
+    <t>http://hl7.org/fhir/ValueSet/icd-10|4.0.1</t>
   </si>
   <si>
     <t>Diagnosis / Diagnose / Diagnostic / Diagnosi</t>
@@ -1524,7 +1524,7 @@
     <t>The type of the diagnosis: admitting, principal, discharge.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-diagnosistype</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-diagnosistype|4.0.1</t>
   </si>
   <si>
     <t>Claim.diagnosis.onAdmission</t>
@@ -1542,7 +1542,7 @@
     <t>Present on admission.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-diagnosis-on-admission</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-diagnosis-on-admission|4.0.1</t>
   </si>
   <si>
     <t>Claim.diagnosis.packageCode</t>
@@ -1563,7 +1563,7 @@
     <t>The DRG codes associated with the diagnosis.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-diagnosisrelatedgroup</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-diagnosisrelatedgroup|4.0.1</t>
   </si>
   <si>
     <t>Claim.procedure</t>
@@ -1611,7 +1611,7 @@
     <t>Example procedure type codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-procedure-type</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-procedure-type|4.0.1</t>
   </si>
   <si>
     <t>Claim.procedure.date</t>
@@ -1630,7 +1630,7 @@
   </si>
   <si>
     <t>CodeableConcept
-Reference(Procedure)</t>
+Reference(Procedure|4.0.1)</t>
   </si>
   <si>
     <t>Specific clinical procedure</t>
@@ -1645,13 +1645,13 @@
     <t>Example ICD10 Procedure codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/icd-10-procedures</t>
+    <t>http://hl7.org/fhir/ValueSet/icd-10-procedures|4.0.1</t>
   </si>
   <si>
     <t>Claim.procedure.udi</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device)
+    <t xml:space="preserve">Reference(Device|4.0.1)
 </t>
   </si>
   <si>
@@ -1782,7 +1782,7 @@
     <t>Claim.insurance.claimResponse</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ClaimResponse)
+    <t xml:space="preserve">Reference(ClaimResponse|4.0.1)
 </t>
   </si>
   <si>
@@ -1860,7 +1860,7 @@
   </si>
   <si>
     <t>Address
-Reference(Location)</t>
+Reference(Location|4.0.1)</t>
   </si>
   <si>
     <t>Where the event occurred</t>
@@ -1987,7 +1987,7 @@
     <t>Codes for the revenue or cost centers supplying the service and/or products.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-revenue-center</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-revenue-center|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.category</t>
@@ -2008,7 +2008,7 @@
     <t>Benefit categories such as: oral-basic, major, glasses.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-benefitcategory</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-benefitcategory|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.category.id</t>
@@ -2233,7 +2233,7 @@
     <t>Allowable service and product codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-uscls</t>
+    <t>http://hl7.org/fhir/ValueSet/service-uscls|4.0.1</t>
   </si>
   <si>
     <t>Tariff number / Tarifziffer / Code tarifaire / Cod. tariffa</t>
@@ -2356,7 +2356,7 @@
     <t>Item type or modifiers codes, eg for Oral whether the treatment is cosmetic or associated with TMJ, or an appliance was lost or stolen.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/claim-modifiers</t>
+    <t>http://hl7.org/fhir/ValueSet/claim-modifiers|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.programCode</t>
@@ -2377,7 +2377,7 @@
     <t>Program specific reason codes.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/ex-program-code</t>
+    <t>http://hl7.org/fhir/ValueSet/ex-program-code|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.serviced[x]</t>
@@ -2399,7 +2399,7 @@
   </si>
   <si>
     <t>CodeableConcept
-AddressReference(Location)</t>
+AddressReference(Location|4.0.1)</t>
   </si>
   <si>
     <t>Place of service or where product was supplied</t>
@@ -2414,13 +2414,13 @@
     <t>Place of service: pharmacy, school, prison, etc.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/service-place</t>
+    <t>http://hl7.org/fhir/ValueSet/service-place|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.quantity</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -2622,7 +2622,7 @@
     <t>The code for the teeth, quadrant, sextant and arch.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/tooth</t>
+    <t>http://hl7.org/fhir/ValueSet/tooth|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.subSite</t>
@@ -2637,13 +2637,13 @@
     <t>The code for the tooth surface and surface combinations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/surface</t>
+    <t>http://hl7.org/fhir/ValueSet/surface|4.0.1</t>
   </si>
   <si>
     <t>Claim.item.encounter</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
